--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_9_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_9_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>463833.0850775921</v>
+        <v>461626.9916711542</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7094780.682604726</v>
+        <v>7094780.682604728</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -665,7 +665,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.4775011478452</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>69.92680236866713</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.5248788930304</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>216.6982829599974</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>46.36558293808073</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -756,7 +756,7 @@
         <v>105.6591799828218</v>
       </c>
       <c r="I3" t="n">
-        <v>65.95263903154859</v>
+        <v>65.95263903154856</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>57.8809963801552</v>
+        <v>57.88099638015515</v>
       </c>
       <c r="S3" t="n">
-        <v>159.035360425222</v>
+        <v>159.0353604252219</v>
       </c>
       <c r="T3" t="n">
-        <v>156.2390223058973</v>
+        <v>197.4201388450818</v>
       </c>
       <c r="U3" t="n">
         <v>225.8965846405547</v>
@@ -798,7 +798,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38.52965881709723</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>65.84071612574927</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>151.625388236511</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>214.068041219212</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2878914634775</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>311.072271888288</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>196.9281421923143</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -975,7 +975,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>172.7084989883154</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -1035,7 +1035,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609193</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.4413478696862</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>258.3549263960543</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>345.4090100635887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>213.9154470216035</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>155.2114886365811</v>
       </c>
     </row>
     <row r="11">
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534536</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>85.78842623643318</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>41.87033634036036</v>
       </c>
     </row>
     <row r="14">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>136.9968647819691</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1822,13 +1822,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>162.0978378613137</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1859,10 +1859,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873204</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>141.7611174530591</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,13 +2053,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>91.24049235254049</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2132,7 +2132,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>66.3856488238477</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>71.67037196991916</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2476,19 +2476,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>110.7975507815475</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590283</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>174.1585076791644</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2770,13 +2770,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>147.0633545968139</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>8.348269799534052</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>83.10312859221543</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>54.79134020099016</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>147.8368914671394</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>347.2384253774346</v>
+        <v>347.2384253774347</v>
       </c>
       <c r="C35" t="n">
-        <v>329.7774754849616</v>
+        <v>329.7774754849617</v>
       </c>
       <c r="D35" t="n">
-        <v>319.187625334637</v>
+        <v>319.1876253346371</v>
       </c>
       <c r="E35" t="n">
-        <v>346.4349537862158</v>
+        <v>346.4349537862159</v>
       </c>
       <c r="F35" t="n">
-        <v>371.3806294556655</v>
+        <v>371.3806294556656</v>
       </c>
       <c r="G35" t="n">
-        <v>375.4263093674075</v>
+        <v>375.4263093674076</v>
       </c>
       <c r="H35" t="n">
-        <v>259.1123481012745</v>
+        <v>259.1123481012746</v>
       </c>
       <c r="I35" t="n">
-        <v>6.081513486880048</v>
+        <v>6.081513486880134</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>73.69234550212992</v>
+        <v>73.69234550213001</v>
       </c>
       <c r="T35" t="n">
-        <v>168.4225538535742</v>
+        <v>168.4225538535743</v>
       </c>
       <c r="U35" t="n">
         <v>215.4997556728561</v>
       </c>
       <c r="V35" t="n">
-        <v>292.256842184089</v>
+        <v>292.2568421840891</v>
       </c>
       <c r="W35" t="n">
-        <v>313.7455524313671</v>
+        <v>313.7455524313672</v>
       </c>
       <c r="X35" t="n">
-        <v>334.2356843924231</v>
+        <v>334.2356843924232</v>
       </c>
       <c r="Y35" t="n">
-        <v>350.7425223700076</v>
+        <v>350.7425223700077</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>144.3365638958914</v>
+        <v>144.3365638958915</v>
       </c>
       <c r="C37" t="n">
-        <v>131.7514048125819</v>
+        <v>99.53462664190725</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>113.1200567321665</v>
       </c>
       <c r="E37" t="n">
-        <v>110.9385463605232</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>109.9256317368854</v>
       </c>
       <c r="G37" t="n">
-        <v>130.5303919729823</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>109.2595986282749</v>
       </c>
       <c r="I37" t="n">
-        <v>60.85700412379219</v>
+        <v>60.85700412379227</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>53.43673638400141</v>
+        <v>53.43673638400151</v>
       </c>
       <c r="S37" t="n">
-        <v>103.6335810102701</v>
+        <v>154.2736090453961</v>
       </c>
       <c r="T37" t="n">
-        <v>184.0535329901233</v>
+        <v>184.0535329901234</v>
       </c>
       <c r="U37" t="n">
         <v>250.716421919567</v>
       </c>
       <c r="V37" t="n">
-        <v>216.6422270377821</v>
+        <v>216.6422270377822</v>
       </c>
       <c r="W37" t="n">
-        <v>251.0275820505451</v>
+        <v>251.0275820505452</v>
       </c>
       <c r="X37" t="n">
-        <v>190.2142391029912</v>
+        <v>190.2142391029913</v>
       </c>
       <c r="Y37" t="n">
-        <v>183.0892370660489</v>
+        <v>183.089237066049</v>
       </c>
     </row>
     <row r="38">
@@ -3512,7 +3512,7 @@
         <v>346.4349537862159</v>
       </c>
       <c r="F38" t="n">
-        <v>371.3806294556655</v>
+        <v>371.3806294556656</v>
       </c>
       <c r="G38" t="n">
         <v>375.4263093674076</v>
@@ -3521,7 +3521,7 @@
         <v>259.1123481012746</v>
       </c>
       <c r="I38" t="n">
-        <v>6.08151348688007</v>
+        <v>6.081513486880134</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>73.69234550212994</v>
+        <v>73.69234550213001</v>
       </c>
       <c r="T38" t="n">
         <v>168.4225538535743</v>
@@ -3560,13 +3560,13 @@
         <v>215.4997556728561</v>
       </c>
       <c r="V38" t="n">
-        <v>292.256842184089</v>
+        <v>292.2568421840891</v>
       </c>
       <c r="W38" t="n">
-        <v>313.7455524313671</v>
+        <v>313.7455524313672</v>
       </c>
       <c r="X38" t="n">
-        <v>334.2356843924231</v>
+        <v>334.2356843924232</v>
       </c>
       <c r="Y38" t="n">
         <v>350.7425223700077</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>144.3365638958914</v>
+        <v>144.3365638958915</v>
       </c>
       <c r="C40" t="n">
-        <v>131.7514048125819</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>113.1200567321664</v>
+        <v>113.1200567321665</v>
       </c>
       <c r="E40" t="n">
         <v>110.9385463605233</v>
       </c>
       <c r="F40" t="n">
-        <v>109.9256317368853</v>
+        <v>109.9256317368854</v>
       </c>
       <c r="G40" t="n">
-        <v>130.5303919729823</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>109.2595986282749</v>
+        <v>97.85567890965865</v>
       </c>
       <c r="I40" t="n">
-        <v>60.85700412379221</v>
+        <v>60.85700412379227</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>53.43673638400143</v>
+        <v>53.43673638400151</v>
       </c>
       <c r="S40" t="n">
-        <v>154.273609045396</v>
+        <v>154.2736090453961</v>
       </c>
       <c r="T40" t="n">
-        <v>127.010043523727</v>
+        <v>184.0535329901234</v>
       </c>
       <c r="U40" t="n">
         <v>250.716421919567</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>216.6422270377822</v>
       </c>
       <c r="W40" t="n">
-        <v>251.0275820505451</v>
+        <v>251.0275820505452</v>
       </c>
       <c r="X40" t="n">
         <v>190.2142391029913</v>
       </c>
       <c r="Y40" t="n">
-        <v>183.0892370660489</v>
+        <v>183.089237066049</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>347.2384253774347</v>
+        <v>347.2384253774348</v>
       </c>
       <c r="C41" t="n">
-        <v>329.7774754849617</v>
+        <v>329.7774754849618</v>
       </c>
       <c r="D41" t="n">
-        <v>319.1876253346371</v>
+        <v>319.1876253346372</v>
       </c>
       <c r="E41" t="n">
-        <v>346.4349537862159</v>
+        <v>346.434953786216</v>
       </c>
       <c r="F41" t="n">
-        <v>371.3806294556655</v>
+        <v>371.3806294556657</v>
       </c>
       <c r="G41" t="n">
-        <v>375.4263093674076</v>
+        <v>375.4263093674077</v>
       </c>
       <c r="H41" t="n">
-        <v>259.1123481012746</v>
+        <v>259.1123481012747</v>
       </c>
       <c r="I41" t="n">
-        <v>6.081513486880084</v>
+        <v>6.081513486880198</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>73.69234550212992</v>
+        <v>73.69234550213007</v>
       </c>
       <c r="T41" t="n">
-        <v>168.4225538535743</v>
+        <v>168.4225538535744</v>
       </c>
       <c r="U41" t="n">
-        <v>215.4997556728561</v>
+        <v>215.4997556728562</v>
       </c>
       <c r="V41" t="n">
-        <v>292.256842184089</v>
+        <v>292.2568421840891</v>
       </c>
       <c r="W41" t="n">
-        <v>313.7455524313671</v>
+        <v>313.7455524313672</v>
       </c>
       <c r="X41" t="n">
-        <v>334.2356843924231</v>
+        <v>334.2356843924233</v>
       </c>
       <c r="Y41" t="n">
-        <v>350.7425223700067</v>
+        <v>350.7425223700078</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>144.3365638958914</v>
+        <v>144.3365638958915</v>
       </c>
       <c r="C43" t="n">
-        <v>131.7514048125819</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>113.1200567321666</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>22.44097105292526</v>
       </c>
       <c r="F43" t="n">
-        <v>109.9256317368853</v>
+        <v>109.9256317368855</v>
       </c>
       <c r="G43" t="n">
-        <v>80.90327856149297</v>
+        <v>130.5303919729824</v>
       </c>
       <c r="H43" t="n">
-        <v>109.2595986282749</v>
+        <v>109.259598628275</v>
       </c>
       <c r="I43" t="n">
-        <v>60.85700412379221</v>
+        <v>60.85700412379233</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>53.43673638400143</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>154.273609045396</v>
+        <v>154.2736090453961</v>
       </c>
       <c r="T43" t="n">
-        <v>184.0535329901233</v>
+        <v>184.0535329901234</v>
       </c>
       <c r="U43" t="n">
-        <v>250.716421919567</v>
+        <v>250.7164219195671</v>
       </c>
       <c r="V43" t="n">
-        <v>216.6422270377821</v>
+        <v>216.6422270377822</v>
       </c>
       <c r="W43" t="n">
-        <v>251.0275820505451</v>
+        <v>251.0275820505452</v>
       </c>
       <c r="X43" t="n">
-        <v>190.2142391029913</v>
+        <v>190.2142391029914</v>
       </c>
       <c r="Y43" t="n">
-        <v>183.0892370660489</v>
+        <v>183.089237066049</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>347.2384253774346</v>
+        <v>347.2384253774348</v>
       </c>
       <c r="C44" t="n">
-        <v>329.7774754849616</v>
+        <v>329.7774754849618</v>
       </c>
       <c r="D44" t="n">
-        <v>319.187625334637</v>
+        <v>319.1876253346372</v>
       </c>
       <c r="E44" t="n">
-        <v>346.4349537862158</v>
+        <v>346.434953786216</v>
       </c>
       <c r="F44" t="n">
-        <v>371.3806294556655</v>
+        <v>371.3806294556657</v>
       </c>
       <c r="G44" t="n">
-        <v>375.4263093674075</v>
+        <v>375.4263093674077</v>
       </c>
       <c r="H44" t="n">
-        <v>259.1123481012745</v>
+        <v>259.1123481012747</v>
       </c>
       <c r="I44" t="n">
-        <v>6.081513486880034</v>
+        <v>6.081513486880198</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>73.69234550212991</v>
+        <v>73.69234550213007</v>
       </c>
       <c r="T44" t="n">
-        <v>168.4225538535742</v>
+        <v>168.4225538535744</v>
       </c>
       <c r="U44" t="n">
-        <v>215.499755672856</v>
+        <v>215.4997556728562</v>
       </c>
       <c r="V44" t="n">
-        <v>292.256842184089</v>
+        <v>292.2568421840891</v>
       </c>
       <c r="W44" t="n">
-        <v>313.7455524313671</v>
+        <v>313.7455524313672</v>
       </c>
       <c r="X44" t="n">
-        <v>334.2356843924231</v>
+        <v>334.2356843924233</v>
       </c>
       <c r="Y44" t="n">
-        <v>350.7425223700076</v>
+        <v>350.7425223700078</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247692</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>144.3365638958913</v>
+        <v>144.3365638958915</v>
       </c>
       <c r="C46" t="n">
-        <v>49.45308440517822</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>113.1200567321664</v>
+        <v>81.11137677745231</v>
       </c>
       <c r="E46" t="n">
-        <v>110.9385463605232</v>
+        <v>110.9385463605234</v>
       </c>
       <c r="F46" t="n">
-        <v>109.9256317368853</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>130.5303919729824</v>
       </c>
       <c r="H46" t="n">
-        <v>109.2595986282748</v>
+        <v>109.259598628275</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>60.85700412379233</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>53.43673638400139</v>
+        <v>53.43673638400156</v>
       </c>
       <c r="S46" t="n">
-        <v>154.2736090453959</v>
+        <v>154.2736090453961</v>
       </c>
       <c r="T46" t="n">
-        <v>184.0535329901232</v>
+        <v>184.0535329901234</v>
       </c>
       <c r="U46" t="n">
-        <v>250.7164219195669</v>
+        <v>250.7164219195671</v>
       </c>
       <c r="V46" t="n">
-        <v>216.642227037782</v>
+        <v>216.6422270377822</v>
       </c>
       <c r="W46" t="n">
-        <v>251.027582050545</v>
+        <v>251.0275820505452</v>
       </c>
       <c r="X46" t="n">
-        <v>190.2142391029912</v>
+        <v>190.2142391029914</v>
       </c>
       <c r="Y46" t="n">
-        <v>183.0892370660488</v>
+        <v>183.089237066049</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1621.052389725705</v>
+        <v>1621.509833083702</v>
       </c>
       <c r="C2" t="n">
-        <v>1621.052389725705</v>
+        <v>1621.509833083702</v>
       </c>
       <c r="D2" t="n">
-        <v>1262.786691118955</v>
+        <v>1263.244134476952</v>
       </c>
       <c r="E2" t="n">
-        <v>877.4558818787071</v>
+        <v>877.4558818787073</v>
       </c>
       <c r="F2" t="n">
         <v>466.4699770890996</v>
       </c>
       <c r="G2" t="n">
-        <v>48.25775485501624</v>
+        <v>48.25775485501629</v>
       </c>
       <c r="H2" t="n">
-        <v>48.25775485501624</v>
+        <v>48.25775485501629</v>
       </c>
       <c r="I2" t="n">
-        <v>48.25775485501624</v>
+        <v>48.25775485501629</v>
       </c>
       <c r="J2" t="n">
-        <v>143.3613405244781</v>
+        <v>143.3613405244782</v>
       </c>
       <c r="K2" t="n">
-        <v>406.6417666293493</v>
+        <v>406.6417666293497</v>
       </c>
       <c r="L2" t="n">
-        <v>785.541043602462</v>
+        <v>785.5410436024629</v>
       </c>
       <c r="M2" t="n">
-        <v>1223.746040782768</v>
+        <v>1223.746040782769</v>
       </c>
       <c r="N2" t="n">
         <v>1654.409655400859</v>
       </c>
       <c r="O2" t="n">
-        <v>2015.885456671742</v>
+        <v>2015.885456671743</v>
       </c>
       <c r="P2" t="n">
-        <v>2286.722307110674</v>
+        <v>2286.722307110676</v>
       </c>
       <c r="Q2" t="n">
-        <v>2412.887742750812</v>
+        <v>2412.887742750814</v>
       </c>
       <c r="R2" t="n">
-        <v>2342.254609045088</v>
+        <v>2412.887742750814</v>
       </c>
       <c r="S2" t="n">
-        <v>2342.254609045088</v>
+        <v>2412.887742750814</v>
       </c>
       <c r="T2" t="n">
-        <v>2342.254609045088</v>
+        <v>2193.165642858864</v>
       </c>
       <c r="U2" t="n">
-        <v>2342.254609045088</v>
+        <v>1974.278488353816</v>
       </c>
       <c r="V2" t="n">
-        <v>2011.191721701517</v>
+        <v>1974.278488353816</v>
       </c>
       <c r="W2" t="n">
-        <v>2011.191721701517</v>
+        <v>1621.509833083702</v>
       </c>
       <c r="X2" t="n">
-        <v>2011.191721701517</v>
+        <v>1621.509833083702</v>
       </c>
       <c r="Y2" t="n">
-        <v>1621.052389725705</v>
+        <v>1621.509833083702</v>
       </c>
     </row>
     <row r="3">
@@ -4383,7 +4383,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.8055048397986</v>
+        <v>814.3524755586716</v>
       </c>
       <c r="C3" t="n">
         <v>814.3524755586716</v>
@@ -4404,55 +4404,55 @@
         <v>114.8765821596108</v>
       </c>
       <c r="I3" t="n">
-        <v>48.25775485501624</v>
+        <v>48.25775485501629</v>
       </c>
       <c r="J3" t="n">
-        <v>48.25775485501624</v>
+        <v>111.2074192719583</v>
       </c>
       <c r="K3" t="n">
-        <v>282.4696009334097</v>
+        <v>345.4192653503518</v>
       </c>
       <c r="L3" t="n">
-        <v>658.8007278096526</v>
+        <v>721.7503922265948</v>
       </c>
       <c r="M3" t="n">
-        <v>1149.940624122023</v>
+        <v>1212.890288538966</v>
       </c>
       <c r="N3" t="n">
-        <v>1669.786545444867</v>
+        <v>1732.73620986181</v>
       </c>
       <c r="O3" t="n">
-        <v>2078.928325059891</v>
+        <v>1946.074112602209</v>
       </c>
       <c r="P3" t="n">
-        <v>2390.2976061</v>
+        <v>2257.443393642318</v>
       </c>
       <c r="Q3" t="n">
-        <v>2412.887742750812</v>
+        <v>2412.887742750814</v>
       </c>
       <c r="R3" t="n">
-        <v>2354.422089841565</v>
+        <v>2354.422089841567</v>
       </c>
       <c r="S3" t="n">
-        <v>2193.78031163427</v>
+        <v>2193.780311634272</v>
       </c>
       <c r="T3" t="n">
-        <v>2035.963117385889</v>
+        <v>1994.366029972573</v>
       </c>
       <c r="U3" t="n">
-        <v>1807.784749062096</v>
+        <v>1766.18766164878</v>
       </c>
       <c r="V3" t="n">
-        <v>1572.632640830353</v>
+        <v>1531.035553417037</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.632640830353</v>
+        <v>1276.798196688836</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.78114062482</v>
+        <v>1068.946696483303</v>
       </c>
       <c r="Y3" t="n">
-        <v>1157.020841859867</v>
+        <v>861.1863977183491</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>48.25775485501624</v>
+        <v>261.6534762173198</v>
       </c>
       <c r="C4" t="n">
-        <v>48.25775485501624</v>
+        <v>261.6534762173198</v>
       </c>
       <c r="D4" t="n">
-        <v>48.25775485501624</v>
+        <v>261.6534762173198</v>
       </c>
       <c r="E4" t="n">
-        <v>48.25775485501624</v>
+        <v>195.1477023529266</v>
       </c>
       <c r="F4" t="n">
-        <v>48.25775485501624</v>
+        <v>48.25775485501629</v>
       </c>
       <c r="G4" t="n">
-        <v>48.25775485501624</v>
+        <v>48.25775485501629</v>
       </c>
       <c r="H4" t="n">
-        <v>48.25775485501624</v>
+        <v>48.25775485501629</v>
       </c>
       <c r="I4" t="n">
-        <v>48.25775485501624</v>
+        <v>48.25775485501629</v>
       </c>
       <c r="J4" t="n">
-        <v>48.25775485501624</v>
+        <v>48.25775485501629</v>
       </c>
       <c r="K4" t="n">
-        <v>91.87143294461006</v>
+        <v>91.87143294461018</v>
       </c>
       <c r="L4" t="n">
-        <v>203.2083598384342</v>
+        <v>203.2083598384345</v>
       </c>
       <c r="M4" t="n">
-        <v>330.9866617534285</v>
+        <v>330.9866617534288</v>
       </c>
       <c r="N4" t="n">
-        <v>461.1612976692849</v>
+        <v>461.1612976692854</v>
       </c>
       <c r="O4" t="n">
-        <v>565.3823477984521</v>
+        <v>565.3823477984527</v>
       </c>
       <c r="P4" t="n">
-        <v>631.0407786978474</v>
+        <v>631.0407786978481</v>
       </c>
       <c r="Q4" t="n">
-        <v>631.0407786978474</v>
+        <v>631.0407786978481</v>
       </c>
       <c r="R4" t="n">
-        <v>631.0407786978474</v>
+        <v>477.8838208831905</v>
       </c>
       <c r="S4" t="n">
-        <v>631.0407786978474</v>
+        <v>261.6534762173198</v>
       </c>
       <c r="T4" t="n">
-        <v>631.0407786978474</v>
+        <v>261.6534762173198</v>
       </c>
       <c r="U4" t="n">
-        <v>341.8610903509003</v>
+        <v>261.6534762173198</v>
       </c>
       <c r="V4" t="n">
-        <v>87.17660214501345</v>
+        <v>261.6534762173198</v>
       </c>
       <c r="W4" t="n">
-        <v>87.17660214501345</v>
+        <v>261.6534762173198</v>
       </c>
       <c r="X4" t="n">
-        <v>87.17660214501345</v>
+        <v>261.6534762173198</v>
       </c>
       <c r="Y4" t="n">
-        <v>87.17660214501345</v>
+        <v>261.6534762173198</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1524.301830724558</v>
+        <v>413.2717739202503</v>
       </c>
       <c r="C5" t="n">
-        <v>1524.301830724558</v>
+        <v>413.2717739202503</v>
       </c>
       <c r="D5" t="n">
-        <v>1524.301830724558</v>
+        <v>413.2717739202503</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>413.2717739202503</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>406.3262731710468</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.209817970484</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2267.209817970484</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>1914.44116270037</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X5" t="n">
-        <v>1914.44116270037</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="Y5" t="n">
-        <v>1524.301830724558</v>
+        <v>799.8716139843721</v>
       </c>
     </row>
     <row r="6">
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
         <v>814.0449459359563</v>
@@ -4656,13 +4656,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>354.283994459117</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>354.283994459117</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1721.819089287443</v>
+        <v>1529.645519427256</v>
       </c>
       <c r="C8" t="n">
-        <v>1721.819089287443</v>
+        <v>1529.645519427256</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>1529.645519427256</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>1143.857266829012</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>732.8713620394042</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>314.907553937591</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,10 +4805,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>2423.485734520778</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W8" t="n">
-        <v>2070.717079250664</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X8" t="n">
-        <v>2070.717079250664</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="Y8" t="n">
-        <v>1721.819089287443</v>
+        <v>1916.245359491378</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>222.8791647482714</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X10" t="n">
-        <v>222.8791647482714</v>
+        <v>210.7222632714565</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5027,40 +5027,40 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551632</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1521.86673817257</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>2055.398642844495</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N11" t="n">
-        <v>2602.177459903277</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
@@ -5121,7 +5121,7 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L12" t="n">
         <v>794.200663232024</v>
@@ -5136,22 +5136,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>656.9233744498081</v>
+        <v>389.6913148129298</v>
       </c>
       <c r="C13" t="n">
-        <v>656.9233744498081</v>
+        <v>389.6913148129298</v>
       </c>
       <c r="D13" t="n">
-        <v>506.8067350374723</v>
+        <v>389.6913148129298</v>
       </c>
       <c r="E13" t="n">
-        <v>506.8067350374723</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F13" t="n">
-        <v>506.8067350374723</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
-        <v>140.6836668953263</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442029</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
-        <v>661.230648292699</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892248</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.796070598113</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518526</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
-        <v>1878.733169952185</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.3434661047</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.3434661047</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.657581931526</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1542.890966501052</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U13" t="n">
-        <v>1253.788099626696</v>
+        <v>1385.724257814701</v>
       </c>
       <c r="V13" t="n">
-        <v>1253.788099626696</v>
+        <v>1131.039769608814</v>
       </c>
       <c r="W13" t="n">
-        <v>964.3709295897354</v>
+        <v>841.6225995718538</v>
       </c>
       <c r="X13" t="n">
-        <v>964.3709295897354</v>
+        <v>613.6330486738365</v>
       </c>
       <c r="Y13" t="n">
-        <v>743.5783504462053</v>
+        <v>571.3397796431694</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5303,25 +5303,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5358,22 +5358,22 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>801.6097761177758</v>
+        <v>402.8778888732398</v>
       </c>
       <c r="C16" t="n">
-        <v>801.6097761177758</v>
+        <v>233.9417059453329</v>
       </c>
       <c r="D16" t="n">
-        <v>801.6097761177758</v>
+        <v>233.9417059453329</v>
       </c>
       <c r="E16" t="n">
-        <v>653.6966825353827</v>
+        <v>233.9417059453329</v>
       </c>
       <c r="F16" t="n">
-        <v>506.8067350374723</v>
+        <v>233.9417059453329</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>233.9417059453329</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5455,31 +5455,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104699</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104699</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.657581931526</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="T16" t="n">
-        <v>1764.657581931526</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="U16" t="n">
-        <v>1475.554715057169</v>
+        <v>1577.410141987875</v>
       </c>
       <c r="V16" t="n">
-        <v>1311.819525298267</v>
+        <v>1322.725653781988</v>
       </c>
       <c r="W16" t="n">
-        <v>1022.402355261306</v>
+        <v>1033.308483745027</v>
       </c>
       <c r="X16" t="n">
-        <v>1022.402355261306</v>
+        <v>805.3189328470097</v>
       </c>
       <c r="Y16" t="n">
-        <v>801.6097761177758</v>
+        <v>584.5263537034796</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749766</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551633</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001598</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.557933208927</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1482.778354750621</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M17" t="n">
-        <v>2461.328657580449</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N17" t="n">
-        <v>3441.080929807095</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750059</v>
+        <v>3931.363334276589</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4326.137700633767</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
@@ -5595,10 +5595,10 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5634,10 +5634,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>703.4635059163045</v>
+        <v>241.778221230537</v>
       </c>
       <c r="C19" t="n">
-        <v>703.4635059163045</v>
+        <v>241.778221230537</v>
       </c>
       <c r="D19" t="n">
-        <v>553.3468665039687</v>
+        <v>241.778221230537</v>
       </c>
       <c r="E19" t="n">
-        <v>410.1538185715858</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F19" t="n">
-        <v>263.2638710736754</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5671,13 +5671,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K19" t="n">
         <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M19" t="n">
         <v>1005.387693892251</v>
@@ -5686,37 +5686,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518525</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952185</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104699</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104699</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.657581931526</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1764.657581931526</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1475.554715057169</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V19" t="n">
-        <v>1220.870226851282</v>
+        <v>1161.625986139285</v>
       </c>
       <c r="W19" t="n">
-        <v>931.4530568143218</v>
+        <v>872.2088161023241</v>
       </c>
       <c r="X19" t="n">
-        <v>703.4635059163045</v>
+        <v>644.2192652043068</v>
       </c>
       <c r="Y19" t="n">
-        <v>703.4635059163045</v>
+        <v>423.4266860607767</v>
       </c>
     </row>
     <row r="20">
@@ -5729,16 +5729,16 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E20" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G20" t="n">
         <v>435.1415336001585</v>
@@ -5750,25 +5750,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483405</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N20" t="n">
-        <v>2667.236715577531</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O20" t="n">
-        <v>3547.201365906985</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P20" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
         <v>4719.034655862919</v>
@@ -5783,19 +5783,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="21">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>725.2129316856134</v>
+        <v>709.4168978689406</v>
       </c>
       <c r="C22" t="n">
-        <v>556.2767487577065</v>
+        <v>540.4807149410337</v>
       </c>
       <c r="D22" t="n">
-        <v>406.1601093453708</v>
+        <v>390.364075528698</v>
       </c>
       <c r="E22" t="n">
-        <v>406.1601093453708</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F22" t="n">
-        <v>406.1601093453708</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5914,7 +5914,7 @@
         <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M22" t="n">
         <v>1005.387693892251</v>
@@ -5923,37 +5923,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.125669518532</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952191</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104706</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104706</v>
       </c>
       <c r="S22" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104706</v>
       </c>
       <c r="T22" t="n">
-        <v>1644.746393431757</v>
+        <v>1883.949150983575</v>
       </c>
       <c r="U22" t="n">
-        <v>1355.6435265574</v>
+        <v>1883.949150983575</v>
       </c>
       <c r="V22" t="n">
-        <v>1355.6435265574</v>
+        <v>1629.264662777688</v>
       </c>
       <c r="W22" t="n">
-        <v>1355.6435265574</v>
+        <v>1339.847492740728</v>
       </c>
       <c r="X22" t="n">
-        <v>1127.653975659383</v>
+        <v>1111.85794184271</v>
       </c>
       <c r="Y22" t="n">
-        <v>906.8613965158531</v>
+        <v>891.0653626991804</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5987,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>351.3014367967928</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>685.1208104866391</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1549.639626139994</v>
+        <v>1237.706702364129</v>
       </c>
       <c r="M23" t="n">
-        <v>2528.189928969822</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N23" t="n">
-        <v>3507.942201196469</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O23" t="n">
-        <v>4010.914672075806</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P23" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>691.0067194606519</v>
+        <v>263.2638710736751</v>
       </c>
       <c r="C25" t="n">
-        <v>522.0705365327449</v>
+        <v>263.2638710736751</v>
       </c>
       <c r="D25" t="n">
-        <v>410.1538185715859</v>
+        <v>263.2638710736751</v>
       </c>
       <c r="E25" t="n">
-        <v>410.1538185715859</v>
+        <v>263.2638710736751</v>
       </c>
       <c r="F25" t="n">
-        <v>263.2638710736755</v>
+        <v>263.2638710736751</v>
       </c>
       <c r="G25" t="n">
         <v>95.56103444839442</v>
@@ -6145,10 +6145,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442062</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927022</v>
@@ -6169,28 +6169,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.51300886223</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>1866.51300886223</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1644.746393431757</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U25" t="n">
-        <v>1644.746393431757</v>
+        <v>1385.724257814701</v>
       </c>
       <c r="V25" t="n">
-        <v>1390.06190522587</v>
+        <v>1131.039769608814</v>
       </c>
       <c r="W25" t="n">
-        <v>1100.644735188909</v>
+        <v>841.6225995718535</v>
       </c>
       <c r="X25" t="n">
-        <v>872.6551842908916</v>
+        <v>665.704915047445</v>
       </c>
       <c r="Y25" t="n">
-        <v>872.6551842908916</v>
+        <v>444.9123359039148</v>
       </c>
     </row>
     <row r="26">
@@ -6215,7 +6215,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6224,25 +6224,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>351.3014367967928</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K26" t="n">
-        <v>685.1208104866391</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L26" t="n">
-        <v>1549.639626139994</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M26" t="n">
-        <v>2528.189928969822</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N26" t="n">
-        <v>3507.942201196469</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O26" t="n">
-        <v>4010.914672075806</v>
+        <v>3517.878731871642</v>
       </c>
       <c r="P26" t="n">
-        <v>4405.689038432984</v>
+        <v>4231.233819318588</v>
       </c>
       <c r="Q26" t="n">
         <v>4653.975400188666</v>
@@ -6309,19 +6309,19 @@
         <v>427.5025029193588</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>582.3166934139181</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C28" t="n">
-        <v>413.3805104860112</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
         <v>95.56103444839442</v>
@@ -6394,13 +6394,13 @@
         <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598115</v>
       </c>
       <c r="O28" t="n">
         <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q28" t="n">
         <v>1956.343466104703</v>
@@ -6409,25 +6409,25 @@
         <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
-        <v>1866.513008862231</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T28" t="n">
-        <v>1644.746393431757</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U28" t="n">
-        <v>1355.643526557401</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V28" t="n">
-        <v>1100.959038351514</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W28" t="n">
-        <v>811.5418683145533</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X28" t="n">
-        <v>803.1092725574482</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y28" t="n">
-        <v>582.3166934139181</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6437,49 +6437,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.557933208926</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>416.1091927888629</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1521.866738172571</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.328657580449</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807095</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O29" t="n">
-        <v>3944.053400686432</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
         <v>4653.975400188666</v>
@@ -6494,19 +6494,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6540,10 +6540,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L30" t="n">
         <v>794.2006632320247</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>590.7492891710233</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="C31" t="n">
-        <v>590.7492891710233</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D31" t="n">
-        <v>590.7492891710233</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>590.7492891710233</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953298</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442061</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M31" t="n">
         <v>1005.387693892251</v>
@@ -6637,34 +6637,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q31" t="n">
         <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S31" t="n">
-        <v>1866.513008862231</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T31" t="n">
-        <v>1644.746393431757</v>
+        <v>1709.312793849721</v>
       </c>
       <c r="U31" t="n">
-        <v>1355.643526557401</v>
+        <v>1420.209926975365</v>
       </c>
       <c r="V31" t="n">
-        <v>1100.959038351514</v>
+        <v>1165.525438769478</v>
       </c>
       <c r="W31" t="n">
-        <v>811.5418683145534</v>
+        <v>876.1082687325172</v>
       </c>
       <c r="X31" t="n">
-        <v>811.5418683145534</v>
+        <v>648.1187178344999</v>
       </c>
       <c r="Y31" t="n">
-        <v>590.7492891710233</v>
+        <v>427.3261386909699</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H32" t="n">
-        <v>137.557933208926</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>351.3014367967928</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K32" t="n">
-        <v>685.1208104866391</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L32" t="n">
-        <v>1549.639626139994</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2528.189928969822</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N32" t="n">
-        <v>3507.942201196469</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O32" t="n">
-        <v>4010.914672075806</v>
+        <v>3517.878731871642</v>
       </c>
       <c r="P32" t="n">
-        <v>4405.689038432984</v>
+        <v>4231.233819318588</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4689.712021827576</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>410.7144041584436</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>241.7782212305367</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
         <v>95.56103444839442</v>
@@ -6862,7 +6862,7 @@
         <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M34" t="n">
         <v>1005.387693892251</v>
@@ -6880,28 +6880,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S34" t="n">
-        <v>1956.343466104703</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>1734.576850674229</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U34" t="n">
-        <v>1585.246657273078</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V34" t="n">
-        <v>1330.562169067191</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W34" t="n">
-        <v>1041.144999030231</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="X34" t="n">
-        <v>813.1554481322135</v>
+        <v>391.8664332433625</v>
       </c>
       <c r="Y34" t="n">
-        <v>592.3628689886833</v>
+        <v>171.0738540998325</v>
       </c>
     </row>
     <row r="35">
@@ -6923,55 +6923,55 @@
         <v>1106.808364398085</v>
       </c>
       <c r="F35" t="n">
-        <v>731.6764154529683</v>
+        <v>731.6764154529678</v>
       </c>
       <c r="G35" t="n">
-        <v>352.4579211424557</v>
+        <v>352.4579211424553</v>
       </c>
       <c r="H35" t="n">
-        <v>90.72827659571318</v>
+        <v>90.7282765957133</v>
       </c>
       <c r="I35" t="n">
-        <v>84.58533367967273</v>
+        <v>84.58533367967276</v>
       </c>
       <c r="J35" t="n">
         <v>273.4644646386981</v>
       </c>
       <c r="K35" t="n">
-        <v>928.1877967739975</v>
+        <v>607.2838383285446</v>
       </c>
       <c r="L35" t="n">
-        <v>1379.222010022406</v>
+        <v>1248.332796164046</v>
       </c>
       <c r="M35" t="n">
-        <v>1912.75391469433</v>
+        <v>1781.864700835971</v>
       </c>
       <c r="N35" t="n">
-        <v>2459.532731753113</v>
+        <v>2328.643517894753</v>
       </c>
       <c r="O35" t="n">
-        <v>2962.50520263245</v>
+        <v>3208.608168224207</v>
       </c>
       <c r="P35" t="n">
-        <v>3675.860290079395</v>
+        <v>3921.963255671153</v>
       </c>
       <c r="Q35" t="n">
-        <v>4105.190361752581</v>
+        <v>4170.249617426835</v>
       </c>
       <c r="R35" t="n">
         <v>4229.266683983637</v>
       </c>
       <c r="S35" t="n">
-        <v>4154.829971355222</v>
+        <v>4154.829971355223</v>
       </c>
       <c r="T35" t="n">
-        <v>3984.706179583935</v>
+        <v>3984.706179583936</v>
       </c>
       <c r="U35" t="n">
-        <v>3767.029658702263</v>
+        <v>3767.029658702264</v>
       </c>
       <c r="V35" t="n">
-        <v>3471.820727203183</v>
+        <v>3471.820727203184</v>
       </c>
       <c r="W35" t="n">
         <v>3154.90602777756</v>
@@ -7011,28 +7011,28 @@
         <v>103.5926252781348</v>
       </c>
       <c r="I36" t="n">
-        <v>84.58533367967273</v>
+        <v>84.58533367967276</v>
       </c>
       <c r="J36" t="n">
-        <v>178.2626031702911</v>
+        <v>178.26260317029</v>
       </c>
       <c r="K36" t="n">
-        <v>416.5268021506382</v>
+        <v>416.5268021506371</v>
       </c>
       <c r="L36" t="n">
-        <v>783.2249624633034</v>
+        <v>783.2249624633024</v>
       </c>
       <c r="M36" t="n">
-        <v>1230.501287685619</v>
+        <v>1230.501287685618</v>
       </c>
       <c r="N36" t="n">
-        <v>1704.024331240074</v>
+        <v>1704.024331240073</v>
       </c>
       <c r="O36" t="n">
-        <v>2114.985610658128</v>
+        <v>2114.985610658127</v>
       </c>
       <c r="P36" t="n">
-        <v>2425.485202134231</v>
+        <v>2425.48520213423</v>
       </c>
       <c r="Q36" t="n">
         <v>2583.126759780831</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>633.4105315565965</v>
+        <v>582.2589880867702</v>
       </c>
       <c r="C37" t="n">
-        <v>500.3283044731805</v>
+        <v>481.7189611757527</v>
       </c>
       <c r="D37" t="n">
-        <v>500.3283044731805</v>
+        <v>367.4562776079077</v>
       </c>
       <c r="E37" t="n">
-        <v>388.2691667352782</v>
+        <v>367.4562776079077</v>
       </c>
       <c r="F37" t="n">
-        <v>388.2691667352782</v>
+        <v>256.4202859544881</v>
       </c>
       <c r="G37" t="n">
-        <v>256.420285954488</v>
+        <v>256.4202859544881</v>
       </c>
       <c r="H37" t="n">
-        <v>146.0570550168366</v>
+        <v>146.0570550168367</v>
       </c>
       <c r="I37" t="n">
-        <v>84.58533367967273</v>
+        <v>84.58533367967276</v>
       </c>
       <c r="J37" t="n">
-        <v>164.8484282497939</v>
+        <v>164.8484282497937</v>
       </c>
       <c r="K37" t="n">
-        <v>403.9760733218557</v>
+        <v>403.9760733218554</v>
       </c>
       <c r="L37" t="n">
-        <v>755.676333893537</v>
+        <v>755.6763338935368</v>
       </c>
       <c r="M37" t="n">
-        <v>1134.973841616272</v>
+        <v>1134.973841616271</v>
       </c>
       <c r="N37" t="n">
-        <v>1511.522680445322</v>
+        <v>1511.522680445321</v>
       </c>
       <c r="O37" t="n">
-        <v>1845.992741488921</v>
+        <v>1845.99274148892</v>
       </c>
       <c r="P37" t="n">
-        <v>2113.740704045765</v>
+        <v>2113.740704045764</v>
       </c>
       <c r="Q37" t="n">
-        <v>2226.491462321465</v>
+        <v>2226.491462321464</v>
       </c>
       <c r="R37" t="n">
-        <v>2172.514960923484</v>
+        <v>2172.514960923483</v>
       </c>
       <c r="S37" t="n">
-        <v>2067.834576064626</v>
+        <v>2016.6830325948</v>
       </c>
       <c r="T37" t="n">
-        <v>1881.921916478643</v>
+        <v>1830.770373008817</v>
       </c>
       <c r="U37" t="n">
-        <v>1628.673005448777</v>
+        <v>1577.521461978951</v>
       </c>
       <c r="V37" t="n">
-        <v>1409.842473087381</v>
+        <v>1358.690929617555</v>
       </c>
       <c r="W37" t="n">
-        <v>1156.279258894911</v>
+        <v>1105.127715425085</v>
       </c>
       <c r="X37" t="n">
-        <v>964.1436638413848</v>
+        <v>912.9921203715588</v>
       </c>
       <c r="Y37" t="n">
-        <v>779.2050405423454</v>
+        <v>728.0534970725191</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2112.262965010018</v>
+        <v>2112.262965010019</v>
       </c>
       <c r="C38" t="n">
-        <v>1779.154403914097</v>
+        <v>1779.154403914099</v>
       </c>
       <c r="D38" t="n">
-        <v>1456.742661151838</v>
+        <v>1456.742661151839</v>
       </c>
       <c r="E38" t="n">
-        <v>1106.808364398084</v>
+        <v>1106.808364398085</v>
       </c>
       <c r="F38" t="n">
-        <v>731.6764154529679</v>
+        <v>731.6764154529685</v>
       </c>
       <c r="G38" t="n">
-        <v>352.4579211424552</v>
+        <v>352.4579211424553</v>
       </c>
       <c r="H38" t="n">
-        <v>90.7282765957132</v>
+        <v>90.72827659571331</v>
       </c>
       <c r="I38" t="n">
-        <v>84.58533367967273</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J38" t="n">
-        <v>438.7826151802132</v>
+        <v>273.4644646386981</v>
       </c>
       <c r="K38" t="n">
-        <v>772.6019888700596</v>
+        <v>797.2985829156385</v>
       </c>
       <c r="L38" t="n">
-        <v>1223.636202118468</v>
+        <v>1248.332796164047</v>
       </c>
       <c r="M38" t="n">
-        <v>2202.186504948297</v>
+        <v>1781.864700835971</v>
       </c>
       <c r="N38" t="n">
-        <v>2748.965322007079</v>
+        <v>2328.643517894754</v>
       </c>
       <c r="O38" t="n">
-        <v>3251.937792886416</v>
+        <v>3208.608168224208</v>
       </c>
       <c r="P38" t="n">
-        <v>3646.712159243593</v>
+        <v>3921.963255671154</v>
       </c>
       <c r="Q38" t="n">
-        <v>4105.190361752581</v>
+        <v>4170.249617426836</v>
       </c>
       <c r="R38" t="n">
-        <v>4229.266683983637</v>
+        <v>4229.266683983638</v>
       </c>
       <c r="S38" t="n">
-        <v>4154.829971355222</v>
+        <v>4154.829971355224</v>
       </c>
       <c r="T38" t="n">
-        <v>3984.706179583935</v>
+        <v>3984.706179583937</v>
       </c>
       <c r="U38" t="n">
-        <v>3767.029658702262</v>
+        <v>3767.029658702264</v>
       </c>
       <c r="V38" t="n">
-        <v>3471.820727203182</v>
+        <v>3471.820727203184</v>
       </c>
       <c r="W38" t="n">
-        <v>3154.906027777559</v>
+        <v>3154.90602777756</v>
       </c>
       <c r="X38" t="n">
-        <v>2817.29422536097</v>
+        <v>2817.294225360971</v>
       </c>
       <c r="Y38" t="n">
-        <v>2463.008849229649</v>
+        <v>2463.00884922965</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>103.5926252781348</v>
       </c>
       <c r="I39" t="n">
-        <v>84.58533367967273</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J39" t="n">
         <v>178.26260317029</v>
@@ -7257,7 +7257,7 @@
         <v>416.5268021506371</v>
       </c>
       <c r="L39" t="n">
-        <v>783.2249624633023</v>
+        <v>783.2249624633024</v>
       </c>
       <c r="M39" t="n">
         <v>1230.501287685618</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>858.709206777861</v>
+        <v>582.2589880867704</v>
       </c>
       <c r="C40" t="n">
-        <v>725.6269796944449</v>
+        <v>582.2589880867704</v>
       </c>
       <c r="D40" t="n">
-        <v>611.3642961266</v>
+        <v>467.9963045189254</v>
       </c>
       <c r="E40" t="n">
-        <v>499.3051583886977</v>
+        <v>355.9371667810228</v>
       </c>
       <c r="F40" t="n">
-        <v>388.2691667352782</v>
+        <v>244.901175127603</v>
       </c>
       <c r="G40" t="n">
-        <v>256.420285954488</v>
+        <v>244.901175127603</v>
       </c>
       <c r="H40" t="n">
-        <v>146.0570550168366</v>
+        <v>146.0570550168367</v>
       </c>
       <c r="I40" t="n">
-        <v>84.58533367967273</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J40" t="n">
-        <v>164.8484282497937</v>
+        <v>164.8484282497934</v>
       </c>
       <c r="K40" t="n">
-        <v>403.9760733218554</v>
+        <v>403.9760733218557</v>
       </c>
       <c r="L40" t="n">
-        <v>755.6763338935369</v>
+        <v>755.676333893537</v>
       </c>
       <c r="M40" t="n">
         <v>1134.973841616271</v>
@@ -7351,31 +7351,31 @@
         <v>2113.740704045765</v>
       </c>
       <c r="Q40" t="n">
-        <v>2226.491462321465</v>
+        <v>2226.491462321464</v>
       </c>
       <c r="R40" t="n">
-        <v>2172.514960923484</v>
+        <v>2172.514960923483</v>
       </c>
       <c r="S40" t="n">
-        <v>2016.683032594801</v>
+        <v>2016.6830325948</v>
       </c>
       <c r="T40" t="n">
-        <v>1888.390059338511</v>
+        <v>1830.770373008817</v>
       </c>
       <c r="U40" t="n">
-        <v>1635.141148308646</v>
+        <v>1577.521461978951</v>
       </c>
       <c r="V40" t="n">
-        <v>1635.141148308646</v>
+        <v>1358.690929617555</v>
       </c>
       <c r="W40" t="n">
-        <v>1381.577934116176</v>
+        <v>1105.127715425085</v>
       </c>
       <c r="X40" t="n">
-        <v>1189.442339062649</v>
+        <v>912.9921203715587</v>
       </c>
       <c r="Y40" t="n">
-        <v>1004.50371576361</v>
+        <v>728.0534970725193</v>
       </c>
     </row>
     <row r="41">
@@ -7385,73 +7385,73 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2112.262965010018</v>
+        <v>2112.262965010019</v>
       </c>
       <c r="C41" t="n">
         <v>1779.154403914098</v>
       </c>
       <c r="D41" t="n">
-        <v>1456.742661151838</v>
+        <v>1456.742661151839</v>
       </c>
       <c r="E41" t="n">
         <v>1106.808364398085</v>
       </c>
       <c r="F41" t="n">
-        <v>731.6764154529679</v>
+        <v>731.6764154529678</v>
       </c>
       <c r="G41" t="n">
-        <v>352.4579211424552</v>
+        <v>352.4579211424555</v>
       </c>
       <c r="H41" t="n">
-        <v>90.7282765957132</v>
+        <v>90.72827659571338</v>
       </c>
       <c r="I41" t="n">
-        <v>84.58533367967271</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J41" t="n">
-        <v>440.8701136590511</v>
+        <v>273.4644646386981</v>
       </c>
       <c r="K41" t="n">
-        <v>774.6894873488975</v>
+        <v>797.2985829156385</v>
       </c>
       <c r="L41" t="n">
-        <v>1225.723700597306</v>
+        <v>1248.332796164047</v>
       </c>
       <c r="M41" t="n">
-        <v>1979.404890533737</v>
+        <v>1781.864700835971</v>
       </c>
       <c r="N41" t="n">
-        <v>2959.157162760383</v>
+        <v>2328.643517894754</v>
       </c>
       <c r="O41" t="n">
-        <v>3462.12963363972</v>
+        <v>3208.608168224208</v>
       </c>
       <c r="P41" t="n">
-        <v>3856.903999996898</v>
+        <v>3921.963255671154</v>
       </c>
       <c r="Q41" t="n">
-        <v>4105.19036175258</v>
+        <v>4170.249617426836</v>
       </c>
       <c r="R41" t="n">
-        <v>4229.266683983636</v>
+        <v>4229.266683983638</v>
       </c>
       <c r="S41" t="n">
-        <v>4154.829971355221</v>
+        <v>4154.829971355224</v>
       </c>
       <c r="T41" t="n">
-        <v>3984.706179583934</v>
+        <v>3984.706179583937</v>
       </c>
       <c r="U41" t="n">
-        <v>3767.029658702262</v>
+        <v>3767.029658702264</v>
       </c>
       <c r="V41" t="n">
-        <v>3471.820727203182</v>
+        <v>3471.820727203185</v>
       </c>
       <c r="W41" t="n">
-        <v>3154.906027777558</v>
+        <v>3154.906027777561</v>
       </c>
       <c r="X41" t="n">
-        <v>2817.294225360969</v>
+        <v>2817.294225360972</v>
       </c>
       <c r="Y41" t="n">
         <v>2463.00884922965</v>
@@ -7485,28 +7485,28 @@
         <v>103.5926252781348</v>
       </c>
       <c r="I42" t="n">
-        <v>84.58533367967271</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J42" t="n">
-        <v>178.26260317029</v>
+        <v>178.2626031702911</v>
       </c>
       <c r="K42" t="n">
-        <v>416.5268021506371</v>
+        <v>416.5268021506382</v>
       </c>
       <c r="L42" t="n">
-        <v>783.2249624633023</v>
+        <v>783.2249624633034</v>
       </c>
       <c r="M42" t="n">
-        <v>1230.501287685618</v>
+        <v>1230.501287685619</v>
       </c>
       <c r="N42" t="n">
-        <v>1704.024331240073</v>
+        <v>1704.024331240074</v>
       </c>
       <c r="O42" t="n">
-        <v>2114.985610658127</v>
+        <v>2114.985610658128</v>
       </c>
       <c r="P42" t="n">
-        <v>2425.48520213423</v>
+        <v>2425.485202134231</v>
       </c>
       <c r="Q42" t="n">
         <v>2583.126759780831</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>582.2589880867711</v>
+        <v>636.2354894847506</v>
       </c>
       <c r="C43" t="n">
-        <v>449.176761003355</v>
+        <v>636.2354894847506</v>
       </c>
       <c r="D43" t="n">
-        <v>449.176761003355</v>
+        <v>521.9728059169056</v>
       </c>
       <c r="E43" t="n">
-        <v>449.176761003355</v>
+        <v>499.3051583886983</v>
       </c>
       <c r="F43" t="n">
-        <v>338.1407693499354</v>
+        <v>388.2691667352786</v>
       </c>
       <c r="G43" t="n">
-        <v>256.420285954488</v>
+        <v>256.4202859544882</v>
       </c>
       <c r="H43" t="n">
-        <v>146.0570550168366</v>
+        <v>146.0570550168367</v>
       </c>
       <c r="I43" t="n">
-        <v>84.58533367967271</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J43" t="n">
-        <v>164.8484282497937</v>
+        <v>164.8484282497936</v>
       </c>
       <c r="K43" t="n">
-        <v>403.9760733218554</v>
+        <v>403.9760733218552</v>
       </c>
       <c r="L43" t="n">
-        <v>755.676333893537</v>
+        <v>755.6763338935366</v>
       </c>
       <c r="M43" t="n">
         <v>1134.973841616271</v>
@@ -7585,34 +7585,34 @@
         <v>1845.99274148892</v>
       </c>
       <c r="P43" t="n">
-        <v>2113.740704045765</v>
+        <v>2113.740704045764</v>
       </c>
       <c r="Q43" t="n">
-        <v>2226.491462321465</v>
+        <v>2226.491462321464</v>
       </c>
       <c r="R43" t="n">
-        <v>2172.514960923484</v>
+        <v>2226.491462321464</v>
       </c>
       <c r="S43" t="n">
-        <v>2016.683032594801</v>
+        <v>2070.659533992781</v>
       </c>
       <c r="T43" t="n">
-        <v>1830.770373008818</v>
+        <v>1884.746874406798</v>
       </c>
       <c r="U43" t="n">
-        <v>1577.521461978952</v>
+        <v>1631.497963376932</v>
       </c>
       <c r="V43" t="n">
-        <v>1358.690929617556</v>
+        <v>1412.667431015536</v>
       </c>
       <c r="W43" t="n">
-        <v>1105.127715425086</v>
+        <v>1159.104216823066</v>
       </c>
       <c r="X43" t="n">
-        <v>912.9921203715598</v>
+        <v>966.968621769539</v>
       </c>
       <c r="Y43" t="n">
-        <v>728.05349707252</v>
+        <v>782.0299984704995</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2112.262965010019</v>
+        <v>2112.26296501002</v>
       </c>
       <c r="C44" t="n">
         <v>1779.154403914099</v>
@@ -7634,64 +7634,64 @@
         <v>1106.808364398085</v>
       </c>
       <c r="F44" t="n">
-        <v>731.6764154529683</v>
+        <v>731.6764154529685</v>
       </c>
       <c r="G44" t="n">
-        <v>352.4579211424551</v>
+        <v>352.4579211424557</v>
       </c>
       <c r="H44" t="n">
-        <v>90.72827659571315</v>
+        <v>90.7282765957134</v>
       </c>
       <c r="I44" t="n">
-        <v>84.58533367967271</v>
+        <v>84.58533367967279</v>
       </c>
       <c r="J44" t="n">
-        <v>440.8701136590511</v>
+        <v>273.4644646386982</v>
       </c>
       <c r="K44" t="n">
-        <v>774.6894873488975</v>
+        <v>607.2838383285446</v>
       </c>
       <c r="L44" t="n">
-        <v>1225.723700597306</v>
+        <v>1058.318051576953</v>
       </c>
       <c r="M44" t="n">
-        <v>1979.404890533737</v>
+        <v>1591.849956248877</v>
       </c>
       <c r="N44" t="n">
-        <v>2959.157162760383</v>
+        <v>2138.62877330766</v>
       </c>
       <c r="O44" t="n">
-        <v>3462.12963363972</v>
+        <v>3018.593423637114</v>
       </c>
       <c r="P44" t="n">
-        <v>3856.903999996898</v>
+        <v>3731.94851108406</v>
       </c>
       <c r="Q44" t="n">
-        <v>4105.19036175258</v>
+        <v>4170.249617426837</v>
       </c>
       <c r="R44" t="n">
-        <v>4229.266683983636</v>
+        <v>4229.266683983639</v>
       </c>
       <c r="S44" t="n">
-        <v>4154.829971355221</v>
+        <v>4154.829971355225</v>
       </c>
       <c r="T44" t="n">
-        <v>3984.706179583934</v>
+        <v>3984.706179583938</v>
       </c>
       <c r="U44" t="n">
-        <v>3767.029658702263</v>
+        <v>3767.029658702265</v>
       </c>
       <c r="V44" t="n">
-        <v>3471.820727203183</v>
+        <v>3471.820727203185</v>
       </c>
       <c r="W44" t="n">
-        <v>3154.906027777559</v>
+        <v>3154.906027777561</v>
       </c>
       <c r="X44" t="n">
-        <v>2817.29422536097</v>
+        <v>2817.294225360972</v>
       </c>
       <c r="Y44" t="n">
-        <v>2463.00884922965</v>
+        <v>2463.008849229651</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>959.617071728598</v>
+        <v>959.6170717285975</v>
       </c>
       <c r="C45" t="n">
-        <v>785.164042447471</v>
+        <v>785.1640424474705</v>
       </c>
       <c r="D45" t="n">
-        <v>636.2296327862198</v>
+        <v>636.2296327862192</v>
       </c>
       <c r="E45" t="n">
-        <v>476.9921777807642</v>
+        <v>476.9921777807637</v>
       </c>
       <c r="F45" t="n">
-        <v>330.4576198076492</v>
+        <v>330.4576198076487</v>
       </c>
       <c r="G45" t="n">
-        <v>194.0945196402673</v>
+        <v>194.0945196402668</v>
       </c>
       <c r="H45" t="n">
-        <v>103.5926252781348</v>
+        <v>103.5926252781343</v>
       </c>
       <c r="I45" t="n">
-        <v>84.58533367967271</v>
+        <v>84.58533367967279</v>
       </c>
       <c r="J45" t="n">
         <v>178.26260317029</v>
@@ -7731,7 +7731,7 @@
         <v>416.5268021506371</v>
       </c>
       <c r="L45" t="n">
-        <v>783.2249624633023</v>
+        <v>783.2249624633024</v>
       </c>
       <c r="M45" t="n">
         <v>1230.501287685618</v>
@@ -7746,28 +7746,28 @@
         <v>2425.48520213423</v>
       </c>
       <c r="Q45" t="n">
-        <v>2583.126759780831</v>
+        <v>2583.12675978083</v>
       </c>
       <c r="R45" t="n">
-        <v>2582.982406373346</v>
+        <v>2582.982406373345</v>
       </c>
       <c r="S45" t="n">
-        <v>2453.544519866826</v>
+        <v>2453.544519866825</v>
       </c>
       <c r="T45" t="n">
         <v>2260.901519544681</v>
       </c>
       <c r="U45" t="n">
-        <v>2032.833672679097</v>
+        <v>2032.833672679096</v>
       </c>
       <c r="V45" t="n">
         <v>1797.681564447354</v>
       </c>
       <c r="W45" t="n">
-        <v>1543.444207719153</v>
+        <v>1543.444207719152</v>
       </c>
       <c r="X45" t="n">
-        <v>1335.59270751362</v>
+        <v>1335.592707513619</v>
       </c>
       <c r="Y45" t="n">
         <v>1127.832408748666</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>582.2589880867716</v>
+        <v>582.2589880867693</v>
       </c>
       <c r="C46" t="n">
-        <v>532.3063775764906</v>
+        <v>582.2589880867693</v>
       </c>
       <c r="D46" t="n">
-        <v>418.0436940086457</v>
+        <v>500.3283044731811</v>
       </c>
       <c r="E46" t="n">
-        <v>305.9845562707434</v>
+        <v>388.2691667352786</v>
       </c>
       <c r="F46" t="n">
-        <v>194.9485646173241</v>
+        <v>388.2691667352786</v>
       </c>
       <c r="G46" t="n">
-        <v>194.9485646173241</v>
+        <v>256.4202859544883</v>
       </c>
       <c r="H46" t="n">
-        <v>84.58533367967271</v>
+        <v>146.0570550168368</v>
       </c>
       <c r="I46" t="n">
-        <v>84.58533367967271</v>
+        <v>84.58533367967279</v>
       </c>
       <c r="J46" t="n">
-        <v>164.8484282497938</v>
+        <v>164.8484282497936</v>
       </c>
       <c r="K46" t="n">
-        <v>403.9760733218556</v>
+        <v>403.9760733218553</v>
       </c>
       <c r="L46" t="n">
-        <v>755.676333893537</v>
+        <v>755.6763338935366</v>
       </c>
       <c r="M46" t="n">
         <v>1134.973841616271</v>
@@ -7822,34 +7822,34 @@
         <v>1845.99274148892</v>
       </c>
       <c r="P46" t="n">
-        <v>2113.740704045765</v>
+        <v>2113.740704045764</v>
       </c>
       <c r="Q46" t="n">
-        <v>2226.491462321465</v>
+        <v>2226.491462321464</v>
       </c>
       <c r="R46" t="n">
-        <v>2172.514960923484</v>
+        <v>2172.514960923483</v>
       </c>
       <c r="S46" t="n">
-        <v>2016.683032594801</v>
+        <v>2016.6830325948</v>
       </c>
       <c r="T46" t="n">
-        <v>1830.770373008818</v>
+        <v>1830.770373008816</v>
       </c>
       <c r="U46" t="n">
-        <v>1577.521461978953</v>
+        <v>1577.521461978951</v>
       </c>
       <c r="V46" t="n">
-        <v>1358.690929617557</v>
+        <v>1358.690929617555</v>
       </c>
       <c r="W46" t="n">
-        <v>1105.127715425086</v>
+        <v>1105.127715425084</v>
       </c>
       <c r="X46" t="n">
-        <v>912.9921203715597</v>
+        <v>912.9921203715578</v>
       </c>
       <c r="Y46" t="n">
-        <v>728.0534970725205</v>
+        <v>728.0534970725182</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>62.50551572733622</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8070,13 +8070,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>196.0806254639768</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>75.88111353616841</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>288.0478149561032</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>133.253057640027</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>80.35488666587528</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,28 +9398,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>29.61882225792249</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9635,13 +9635,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>67.53663776704337</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277313</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9650,7 +9650,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,28 +9872,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>67.53663776704337</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>176.2173930448442</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -10109,28 +10109,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>132.9990175570132</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>67.53663776704383</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>67.53663776704337</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>29.61882225792191</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10586,10 +10586,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>191.9340854415081</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10598,16 +10598,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>182.8724342601048</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>166.9880308500153</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>191.934085441509</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>191.934085441509</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>222.3730154186935</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11303,22 +11303,22 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>222.3730154186935</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>191.9340854415099</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>5.258016244624741e-13</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>94.04355394550412</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>176.7143170117344</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>7.758150132351687</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>90.03980546251428</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>4.672845193510104</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>160.8971509712875</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>99.64015943518052</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,22 +24172,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>147.87857730625</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,16 +24364,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>37.81792223666491</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983815</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,13 +24412,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>51.55114770987274</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,13 +24658,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>105.0742887270141</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>217.3613855895031</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>62.31791943071582</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>164.757609075179</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,10 +25072,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>105.0742887270136</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25090,7 +25090,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983812</v>
@@ -25120,16 +25120,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>138.3749467384735</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25312,19 +25312,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>32.21677817067474</v>
       </c>
       <c r="D37" t="n">
-        <v>113.1200567321664</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>110.9385463605233</v>
       </c>
       <c r="F37" t="n">
-        <v>109.9256317368853</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>130.5303919729824</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>50.64002803512583</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>131.751404812582</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25561,10 +25561,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>130.5303919729824</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>11.40391971861629</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25600,13 +25600,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>57.04348946639632</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>216.6422270377821</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25786,19 +25786,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>131.7514048125821</v>
       </c>
       <c r="D43" t="n">
-        <v>113.1200567321664</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>110.9385463605233</v>
+        <v>88.49757530759813</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>49.62711341148936</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>53.43673638400156</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>82.29832040740366</v>
+        <v>131.7514048125821</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>32.00867995471427</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>109.9256317368855</v>
       </c>
       <c r="G46" t="n">
-        <v>130.5303919729823</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>60.85700412379217</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>389994.8406855346</v>
+        <v>389994.8406855348</v>
       </c>
       <c r="C2" t="n">
         <v>389994.8406855345</v>
       </c>
       <c r="D2" t="n">
-        <v>389994.8406855345</v>
+        <v>389994.8406855343</v>
       </c>
       <c r="E2" t="n">
-        <v>377227.6975426338</v>
+        <v>377227.6975426336</v>
       </c>
       <c r="F2" t="n">
+        <v>377227.6975426341</v>
+      </c>
+      <c r="G2" t="n">
         <v>377227.6975426342</v>
       </c>
-      <c r="G2" t="n">
-        <v>377227.6975426339</v>
-      </c>
       <c r="H2" t="n">
+        <v>377227.6975426342</v>
+      </c>
+      <c r="I2" t="n">
+        <v>377227.697542634</v>
+      </c>
+      <c r="J2" t="n">
         <v>377227.6975426341</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>377227.6975426342</v>
-      </c>
-      <c r="J2" t="n">
-        <v>377227.697542634</v>
-      </c>
-      <c r="K2" t="n">
-        <v>377227.697542634</v>
       </c>
       <c r="L2" t="n">
         <v>377227.6975426342</v>
@@ -26350,7 +26350,7 @@
         <v>386874.823517387</v>
       </c>
       <c r="O2" t="n">
-        <v>386874.8235173871</v>
+        <v>386874.8235173869</v>
       </c>
       <c r="P2" t="n">
         <v>386874.823517387</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>507203.1428394268</v>
+        <v>507203.1428394272</v>
       </c>
       <c r="C3" t="n">
-        <v>78665.28217418044</v>
+        <v>78665.28217417996</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934068</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,10 +26387,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>157829.4001410734</v>
+        <v>157829.4001410735</v>
       </c>
       <c r="K3" t="n">
-        <v>18289.9436702217</v>
+        <v>18289.94367022157</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>240792.6346638844</v>
+        <v>240792.6346638843</v>
       </c>
       <c r="C4" t="n">
         <v>218780.3249983351</v>
@@ -26424,40 +26424,40 @@
         <v>218780.3249983351</v>
       </c>
       <c r="E4" t="n">
-        <v>32032.95503079764</v>
+        <v>32032.95503079773</v>
       </c>
       <c r="F4" t="n">
-        <v>32032.95503079767</v>
+        <v>32032.95503079772</v>
       </c>
       <c r="G4" t="n">
-        <v>32032.95503079768</v>
+        <v>32032.95503079769</v>
       </c>
       <c r="H4" t="n">
-        <v>32032.95503079768</v>
+        <v>32032.95503079773</v>
       </c>
       <c r="I4" t="n">
+        <v>32032.95503079771</v>
+      </c>
+      <c r="J4" t="n">
+        <v>32032.95503079771</v>
+      </c>
+      <c r="K4" t="n">
         <v>32032.9550307977</v>
       </c>
-      <c r="J4" t="n">
-        <v>32032.9550307977</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>32032.95503079771</v>
       </c>
-      <c r="L4" t="n">
-        <v>32032.9550307977</v>
-      </c>
       <c r="M4" t="n">
-        <v>58108.3732700337</v>
+        <v>58108.37327003364</v>
       </c>
       <c r="N4" t="n">
-        <v>58108.37327003368</v>
+        <v>58108.37327003365</v>
       </c>
       <c r="O4" t="n">
-        <v>58108.37327003371</v>
+        <v>58108.3732700336</v>
       </c>
       <c r="P4" t="n">
-        <v>58108.37327003371</v>
+        <v>58108.37327003362</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77204.68871133431</v>
+        <v>77204.68871133435</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26482,7 +26482,7 @@
         <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
         <v>96383.51825371364</v>
@@ -26503,13 +26503,13 @@
         <v>91026.04982123677</v>
       </c>
       <c r="N5" t="n">
-        <v>91026.04982123677</v>
+        <v>91026.04982123678</v>
       </c>
       <c r="O5" t="n">
-        <v>91026.04982123675</v>
+        <v>91026.04982123678</v>
       </c>
       <c r="P5" t="n">
-        <v>91026.04982123675</v>
+        <v>91026.0498212368</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-435205.6255291109</v>
+        <v>-435205.625529111</v>
       </c>
       <c r="C6" t="n">
-        <v>9690.155449609476</v>
+        <v>9690.155449609942</v>
       </c>
       <c r="D6" t="n">
-        <v>88355.43762378997</v>
+        <v>88355.43762378983</v>
       </c>
       <c r="E6" t="n">
-        <v>-478566.1897352843</v>
+        <v>-478633.3852255101</v>
       </c>
       <c r="F6" t="n">
-        <v>248811.2242581229</v>
+        <v>248744.0287678969</v>
       </c>
       <c r="G6" t="n">
-        <v>248811.2242581226</v>
+        <v>248744.028767897</v>
       </c>
       <c r="H6" t="n">
-        <v>248811.2242581228</v>
+        <v>248744.028767897</v>
       </c>
       <c r="I6" t="n">
-        <v>248811.2242581228</v>
+        <v>248744.0287678969</v>
       </c>
       <c r="J6" t="n">
-        <v>90981.82411704931</v>
+        <v>90914.62862682344</v>
       </c>
       <c r="K6" t="n">
-        <v>230521.2805879009</v>
+        <v>230454.0850976755</v>
       </c>
       <c r="L6" t="n">
-        <v>248811.2242581228</v>
+        <v>248744.0287678971</v>
       </c>
       <c r="M6" t="n">
-        <v>113891.6092379415</v>
+        <v>113875.1880949513</v>
       </c>
       <c r="N6" t="n">
-        <v>237740.4004261166</v>
+        <v>237723.9792831264</v>
       </c>
       <c r="O6" t="n">
-        <v>237740.4004261167</v>
+        <v>237723.9792831264</v>
       </c>
       <c r="P6" t="n">
-        <v>237740.4004261165</v>
+        <v>237723.9792831263</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>35.49541628604593</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="N2" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="O2" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="P2" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604578</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>316.5685789688979</v>
+        <v>316.5685789688983</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>603.2219356877031</v>
+        <v>603.2219356877035</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26823,13 +26823,13 @@
         <v>1057.316670995909</v>
       </c>
       <c r="N4" t="n">
-        <v>1057.316670995909</v>
+        <v>1057.31667099591</v>
       </c>
       <c r="O4" t="n">
-        <v>1057.316670995909</v>
+        <v>1057.31667099591</v>
       </c>
       <c r="P4" t="n">
-        <v>1057.316670995909</v>
+        <v>1057.31667099591</v>
       </c>
     </row>
   </sheetData>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>35.49541628604593</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>316.5685789688979</v>
+        <v>316.5685789688983</v>
       </c>
       <c r="C3" t="n">
-        <v>61.17508524818874</v>
+        <v>61.1750852481884</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762117</v>
+        <v>712.0330363762114</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>603.2219356877031</v>
+        <v>603.2219356877035</v>
       </c>
       <c r="C4" t="n">
-        <v>71.06533706685252</v>
+        <v>71.06533706685201</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>603.2219356877031</v>
+        <v>603.2219356877035</v>
       </c>
       <c r="K4" t="n">
-        <v>71.06533706685252</v>
+        <v>71.06533706685201</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>383.0293982413536</v>
+        <v>383.0293982413538</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>603.2219356877031</v>
+        <v>603.2219356877035</v>
       </c>
       <c r="K4" t="n">
-        <v>71.06533706685252</v>
+        <v>71.06533706685201</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4528689244165776</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>326.4414032841482</v>
+        <v>326.4414032841481</v>
       </c>
       <c r="I2" t="n">
         <v>161.4125322208644</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>69.92680236866703</v>
       </c>
       <c r="S2" t="n">
         <v>180.0198424776875</v>
       </c>
       <c r="T2" t="n">
-        <v>217.5248788930305</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2438419075651</v>
+        <v>34.54555894756771</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>120.1676007117866</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27509,7 +27509,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>41.1811165391845</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27518,7 +27518,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>141.3023213648401</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,10 +27543,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>80.5932465208199</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.4201179865476</v>
@@ -27558,7 +27558,7 @@
         <v>138.28311657924</v>
       </c>
       <c r="J4" t="n">
-        <v>52.99928112255608</v>
+        <v>52.99928112255603</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,22 +27579,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.3601878273908</v>
+        <v>38.36018782739075</v>
       </c>
       <c r="R4" t="n">
-        <v>151.625388236511</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>214.068041219212</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.5064544755703</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2878914634775</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>70.85809818397377</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>216.8560278284807</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27695,7 +27695,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>3.694822225952521e-13</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27755,7 +27755,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27774,19 +27774,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>1.593757588398091</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>65.56784636830287</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>40.82892859246493</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,19 +28065,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>38.22219630222452</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>63.3731647155137</v>
       </c>
     </row>
     <row r="11">
@@ -28269,7 +28269,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-1.706293818568742e-12</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-1.171464312442994e-13</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -28995,7 +28995,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>2.671640686457977e-12</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>35.49541628604593</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="C35" t="n">
-        <v>35.49541628604593</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="D35" t="n">
-        <v>35.49541628604593</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="E35" t="n">
-        <v>35.49541628604593</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="F35" t="n">
-        <v>35.49541628604593</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="G35" t="n">
-        <v>35.49541628604593</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="H35" t="n">
-        <v>35.49541628604593</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="I35" t="n">
-        <v>35.49541628604593</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>35.49541628604593</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="T35" t="n">
-        <v>35.49541628604593</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="U35" t="n">
-        <v>35.49541628604593</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="V35" t="n">
-        <v>35.49541628604593</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="W35" t="n">
-        <v>35.49541628604593</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="X35" t="n">
-        <v>35.49541628604593</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="Y35" t="n">
-        <v>35.49541628604593</v>
+        <v>35.49541628604585</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>35.49541628604593</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="C37" t="n">
-        <v>35.49541628604593</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="D37" t="n">
-        <v>35.49541628604593</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="E37" t="n">
-        <v>35.49541628604593</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="F37" t="n">
-        <v>35.49541628604593</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="G37" t="n">
-        <v>35.49541628604593</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="H37" t="n">
-        <v>35.49541628604593</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="I37" t="n">
-        <v>35.49541628604593</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="J37" t="n">
-        <v>35.49541628604593</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="K37" t="n">
-        <v>35.49541628604593</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="L37" t="n">
-        <v>35.49541628604593</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="M37" t="n">
-        <v>35.49541628604593</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="N37" t="n">
-        <v>35.49541628604593</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="O37" t="n">
-        <v>35.49541628604593</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="P37" t="n">
-        <v>35.49541628604593</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="Q37" t="n">
-        <v>35.49541628604593</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="R37" t="n">
-        <v>35.49541628604593</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="S37" t="n">
-        <v>35.49541628604593</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="T37" t="n">
-        <v>35.49541628604593</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="U37" t="n">
-        <v>35.49541628604593</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="V37" t="n">
-        <v>35.49541628604593</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="W37" t="n">
-        <v>35.49541628604593</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="X37" t="n">
-        <v>35.49541628604593</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="Y37" t="n">
-        <v>35.49541628604593</v>
+        <v>35.49541628604585</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="C38" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="D38" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="E38" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="F38" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="G38" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="H38" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="I38" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="T38" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="U38" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="V38" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="W38" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="X38" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="Y38" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604585</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="C40" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="D40" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="E40" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="F40" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="G40" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="H40" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="I40" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="J40" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="K40" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="L40" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="M40" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="N40" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="O40" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="P40" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="Q40" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="R40" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="S40" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="T40" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="U40" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="V40" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="W40" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="X40" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="Y40" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604585</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="C41" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="D41" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="E41" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="F41" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="G41" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="H41" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="I41" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="T41" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="U41" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="V41" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="W41" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="X41" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="Y41" t="n">
-        <v>35.49541628604686</v>
+        <v>35.49541628604578</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="C43" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="D43" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="E43" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="F43" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="G43" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="H43" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="I43" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="J43" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="K43" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="L43" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="M43" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="N43" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="O43" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="P43" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="Q43" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="R43" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="S43" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="T43" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="U43" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="V43" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="W43" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="X43" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="Y43" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="C44" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="D44" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="E44" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="F44" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="G44" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="H44" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="I44" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="T44" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="U44" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="V44" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="W44" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="X44" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="Y44" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604578</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="C46" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="D46" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="E46" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="F46" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="G46" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="H46" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="I46" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="J46" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="K46" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="L46" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="M46" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="N46" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="O46" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="P46" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="Q46" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="R46" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="S46" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="T46" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="U46" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="V46" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="W46" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="X46" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="Y46" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604578</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.272637503392553</v>
+        <v>1.272637503392555</v>
       </c>
       <c r="H2" t="n">
-        <v>13.03339883161899</v>
+        <v>13.03339883161901</v>
       </c>
       <c r="I2" t="n">
-        <v>49.06335734954146</v>
+        <v>49.06335734954153</v>
       </c>
       <c r="J2" t="n">
-        <v>108.0135173035638</v>
+        <v>108.013517303564</v>
       </c>
       <c r="K2" t="n">
-        <v>161.8842628221707</v>
+        <v>161.8842628221709</v>
       </c>
       <c r="L2" t="n">
-        <v>200.8317428166205</v>
+        <v>200.8317428166208</v>
       </c>
       <c r="M2" t="n">
-        <v>223.4640100175779</v>
+        <v>223.4640100175781</v>
       </c>
       <c r="N2" t="n">
-        <v>227.079891324092</v>
+        <v>227.0798913240922</v>
       </c>
       <c r="O2" t="n">
-        <v>214.4251021497323</v>
+        <v>214.4251021497325</v>
       </c>
       <c r="P2" t="n">
-        <v>183.0068637847286</v>
+        <v>183.0068637847288</v>
       </c>
       <c r="Q2" t="n">
-        <v>137.4305331944827</v>
+        <v>137.4305331944829</v>
       </c>
       <c r="R2" t="n">
-        <v>79.94231557248256</v>
+        <v>79.94231557248266</v>
       </c>
       <c r="S2" t="n">
-        <v>29.00022710855784</v>
+        <v>29.00022710855788</v>
       </c>
       <c r="T2" t="n">
-        <v>5.570970671100905</v>
+        <v>5.570970671100913</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1018110002714042</v>
+        <v>0.1018110002714044</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6809210943859314</v>
+        <v>0.6809210943859322</v>
       </c>
       <c r="H3" t="n">
-        <v>6.576264253674654</v>
+        <v>6.576264253674662</v>
       </c>
       <c r="I3" t="n">
-        <v>23.4439938198665</v>
+        <v>23.44399381986653</v>
       </c>
       <c r="J3" t="n">
-        <v>64.33211093933048</v>
+        <v>64.33211093933056</v>
       </c>
       <c r="K3" t="n">
-        <v>109.9538242631879</v>
+        <v>109.953824263188</v>
       </c>
       <c r="L3" t="n">
-        <v>147.8464858665594</v>
+        <v>147.8464858665595</v>
       </c>
       <c r="M3" t="n">
-        <v>172.5298755380493</v>
+        <v>172.5298755380495</v>
       </c>
       <c r="N3" t="n">
-        <v>177.0962279648743</v>
+        <v>177.0962279648745</v>
       </c>
       <c r="O3" t="n">
-        <v>162.0084500313755</v>
+        <v>162.0084500313757</v>
       </c>
       <c r="P3" t="n">
-        <v>130.0260640674328</v>
+        <v>130.026064067433</v>
       </c>
       <c r="Q3" t="n">
-        <v>86.91898039915854</v>
+        <v>86.91898039915866</v>
       </c>
       <c r="R3" t="n">
-        <v>42.27683777248793</v>
+        <v>42.27683777248798</v>
       </c>
       <c r="S3" t="n">
-        <v>12.64781067861587</v>
+        <v>12.64781067861588</v>
       </c>
       <c r="T3" t="n">
-        <v>2.744589849739784</v>
+        <v>2.744589849739787</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04479744042012708</v>
+        <v>0.04479744042012714</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5708613719111273</v>
+        <v>0.570861371911128</v>
       </c>
       <c r="H4" t="n">
-        <v>5.075476561173481</v>
+        <v>5.075476561173487</v>
       </c>
       <c r="I4" t="n">
-        <v>17.16735834801827</v>
+        <v>17.16735834801829</v>
       </c>
       <c r="J4" t="n">
-        <v>40.3598989941167</v>
+        <v>40.35989899411675</v>
       </c>
       <c r="K4" t="n">
-        <v>66.32371211840187</v>
+        <v>66.32371211840194</v>
       </c>
       <c r="L4" t="n">
-        <v>84.87151705667797</v>
+        <v>84.87151705667809</v>
       </c>
       <c r="M4" t="n">
-        <v>89.48511487148697</v>
+        <v>89.48511487148708</v>
       </c>
       <c r="N4" t="n">
-        <v>87.3573588489092</v>
+        <v>87.35735884890931</v>
       </c>
       <c r="O4" t="n">
-        <v>80.6886600952201</v>
+        <v>80.6886600952202</v>
       </c>
       <c r="P4" t="n">
-        <v>69.04308810823304</v>
+        <v>69.04308810823312</v>
       </c>
       <c r="Q4" t="n">
-        <v>47.80185542430358</v>
+        <v>47.80185542430364</v>
       </c>
       <c r="R4" t="n">
-        <v>25.6680031406585</v>
+        <v>25.66800314065853</v>
       </c>
       <c r="S4" t="n">
-        <v>9.948556817760279</v>
+        <v>9.948556817760291</v>
       </c>
       <c r="T4" t="n">
-        <v>2.439134952711179</v>
+        <v>2.439134952711183</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03113789301333425</v>
+        <v>0.03113789301333429</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32078,7 +32078,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
         <v>508.9565619138795</v>
@@ -32096,7 +32096,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138801</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33029,7 +33029,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138801</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
         <v>593.9283018233474</v>
@@ -33044,7 +33044,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33260,13 +33260,13 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138801</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
         <v>593.9283018233474</v>
@@ -33734,7 +33734,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026448</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -33755,7 +33755,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.215670698749</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026448</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34229,7 +34229,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.215670698749</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34466,7 +34466,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.215670698749</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>96.06422794895131</v>
+        <v>96.06422794895144</v>
       </c>
       <c r="K2" t="n">
-        <v>265.9398243483548</v>
+        <v>265.939824348355</v>
       </c>
       <c r="L2" t="n">
-        <v>382.7265423970837</v>
+        <v>382.726542397084</v>
       </c>
       <c r="M2" t="n">
-        <v>442.6313102831376</v>
+        <v>442.6313102831379</v>
       </c>
       <c r="N2" t="n">
-        <v>435.0137521394852</v>
+        <v>435.0137521394855</v>
       </c>
       <c r="O2" t="n">
-        <v>365.1270719907909</v>
+        <v>365.1270719907911</v>
       </c>
       <c r="P2" t="n">
-        <v>273.5725762009416</v>
+        <v>273.5725762009419</v>
       </c>
       <c r="Q2" t="n">
-        <v>127.4398339799379</v>
+        <v>127.4398339799381</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>63.58551961307271</v>
       </c>
       <c r="K3" t="n">
-        <v>236.5776223014075</v>
+        <v>236.5776223014076</v>
       </c>
       <c r="L3" t="n">
-        <v>380.1324513901444</v>
+        <v>380.1324513901445</v>
       </c>
       <c r="M3" t="n">
-        <v>496.1009053660309</v>
+        <v>496.1009053660312</v>
       </c>
       <c r="N3" t="n">
-        <v>525.0968902250945</v>
+        <v>525.0968902250947</v>
       </c>
       <c r="O3" t="n">
-        <v>413.2745248636606</v>
+        <v>215.492831050908</v>
       </c>
       <c r="P3" t="n">
-        <v>314.5144252930397</v>
+        <v>314.5144252930399</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.81831984930544</v>
+        <v>157.0144940489863</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>44.05422029251902</v>
+        <v>44.05422029251909</v>
       </c>
       <c r="L4" t="n">
-        <v>112.4615423169941</v>
+        <v>112.4615423169942</v>
       </c>
       <c r="M4" t="n">
-        <v>129.0689918333276</v>
+        <v>129.0689918333277</v>
       </c>
       <c r="N4" t="n">
-        <v>131.4895312281378</v>
+        <v>131.4895312281379</v>
       </c>
       <c r="O4" t="n">
-        <v>105.2737880092598</v>
+        <v>105.2737880092599</v>
       </c>
       <c r="P4" t="n">
-        <v>66.32164737312652</v>
+        <v>66.32164737312661</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>743.6379293484354</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306249</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443195</v>
@@ -35580,13 +35580,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
         <v>370.4021821340053</v>
@@ -35744,7 +35744,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35823,7 +35823,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.3942385378899</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>641.306058528246</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>331.1491914695948</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.353130222636</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N20" t="n">
-        <v>581.9206576708337</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509644</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
         <v>59.61319854222472</v>
@@ -36291,7 +36291,7 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226424</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
@@ -36355,13 +36355,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>258.3236387357559</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427824</v>
+        <v>625.7042053200632</v>
       </c>
       <c r="M23" t="n">
         <v>988.434649323059</v>
@@ -36370,7 +36370,7 @@
         <v>989.6487598248955</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193716</v>
@@ -36379,7 +36379,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306617</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
-        <v>344.85694616754</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.3942385378936</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,28 +36592,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>258.3236387357559</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>427.0116978485636</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -36677,7 +36677,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
         <v>451.7942679013291</v>
@@ -36692,7 +36692,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>323.7860185257257</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P29" t="n">
-        <v>466.2986239864155</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
         <v>451.7942679013291</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>258.3236387357559</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>89.23202080014663</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37306,10 +37306,10 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>647.52419983384</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302265</v>
@@ -37318,16 +37318,16 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908542</v>
       </c>
       <c r="Q35" t="n">
-        <v>433.6667390638243</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597813</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37403,7 +37403,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127274</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.07383289911212</v>
+        <v>81.07383289911203</v>
       </c>
       <c r="K37" t="n">
         <v>241.5430758303654</v>
       </c>
       <c r="L37" t="n">
-        <v>355.252788456244</v>
+        <v>355.2527884562439</v>
       </c>
       <c r="M37" t="n">
-        <v>383.1287956795297</v>
+        <v>383.1287956795296</v>
       </c>
       <c r="N37" t="n">
-        <v>380.352362453586</v>
+        <v>380.3523624535859</v>
       </c>
       <c r="O37" t="n">
-        <v>337.8485465086857</v>
+        <v>337.8485465086856</v>
       </c>
       <c r="P37" t="n">
-        <v>270.4524874311563</v>
+        <v>270.4524874311562</v>
       </c>
       <c r="Q37" t="n">
-        <v>113.8896548239396</v>
+        <v>113.8896548239395</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>357.7750318187278</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>529.1253719969094</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37698,25 +37698,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.07383289911211</v>
+        <v>81.07383289911203</v>
       </c>
       <c r="K40" t="n">
         <v>241.5430758303654</v>
       </c>
       <c r="L40" t="n">
-        <v>355.252788456244</v>
+        <v>355.2527884562439</v>
       </c>
       <c r="M40" t="n">
-        <v>383.1287956795297</v>
+        <v>383.1287956795296</v>
       </c>
       <c r="N40" t="n">
-        <v>380.352362453586</v>
+        <v>380.3523624535859</v>
       </c>
       <c r="O40" t="n">
         <v>337.8485465086856</v>
       </c>
       <c r="P40" t="n">
-        <v>270.4524874311563</v>
+        <v>270.4524874311562</v>
       </c>
       <c r="Q40" t="n">
         <v>113.8896548239395</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>529.1253719969094</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>761.2941312489201</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q41" t="n">
         <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597809</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -37877,7 +37877,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127274</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.07383289911211</v>
+        <v>81.07383289911198</v>
       </c>
       <c r="K43" t="n">
-        <v>241.5430758303654</v>
+        <v>241.5430758303653</v>
       </c>
       <c r="L43" t="n">
-        <v>355.252788456244</v>
+        <v>355.2527884562439</v>
       </c>
       <c r="M43" t="n">
-        <v>383.1287956795297</v>
+        <v>383.1287956795296</v>
       </c>
       <c r="N43" t="n">
-        <v>380.352362453586</v>
+        <v>380.3523624535858</v>
       </c>
       <c r="O43" t="n">
-        <v>337.8485465086856</v>
+        <v>337.8485465086855</v>
       </c>
       <c r="P43" t="n">
-        <v>270.4524874311563</v>
+        <v>270.4524874311562</v>
       </c>
       <c r="Q43" t="n">
-        <v>113.8896548239395</v>
+        <v>113.8896548239394</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554004</v>
@@ -38023,22 +38023,22 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>761.2941312489201</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>442.7283902452294</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38114,7 +38114,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127274</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.07383289911215</v>
+        <v>81.07383289911198</v>
       </c>
       <c r="K46" t="n">
-        <v>241.5430758303655</v>
+        <v>241.5430758303653</v>
       </c>
       <c r="L46" t="n">
-        <v>355.252788456244</v>
+        <v>355.2527884562439</v>
       </c>
       <c r="M46" t="n">
-        <v>383.1287956795297</v>
+        <v>383.1287956795296</v>
       </c>
       <c r="N46" t="n">
-        <v>380.352362453586</v>
+        <v>380.3523624535858</v>
       </c>
       <c r="O46" t="n">
-        <v>337.8485465086857</v>
+        <v>337.8485465086855</v>
       </c>
       <c r="P46" t="n">
-        <v>270.4524874311563</v>
+        <v>270.4524874311562</v>
       </c>
       <c r="Q46" t="n">
-        <v>113.8896548239396</v>
+        <v>113.8896548239394</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
